--- a/data/pca/factorExposure/factorExposure_2016-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01624203127798161</v>
+        <v>-0.01428672517994362</v>
       </c>
       <c r="C2">
-        <v>-0.03914351527936083</v>
+        <v>0.04081371867439611</v>
       </c>
       <c r="D2">
-        <v>-0.03055586278292921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03255803761067253</v>
+      </c>
+      <c r="E2">
+        <v>0.05385085905928059</v>
+      </c>
+      <c r="F2">
+        <v>0.01628168023053325</v>
+      </c>
+      <c r="G2">
+        <v>-0.1026943908310655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06645127849123533</v>
+        <v>-0.0361391856570407</v>
       </c>
       <c r="C3">
-        <v>-0.10218953246994</v>
+        <v>0.09237609125343721</v>
       </c>
       <c r="D3">
-        <v>-0.01900946201180442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01925862260953944</v>
+      </c>
+      <c r="E3">
+        <v>0.09930261392762438</v>
+      </c>
+      <c r="F3">
+        <v>0.02797923637287055</v>
+      </c>
+      <c r="G3">
+        <v>-0.1062476400177568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06675624668392841</v>
+        <v>-0.05569751628914214</v>
       </c>
       <c r="C4">
-        <v>-0.06089296560466004</v>
+        <v>0.05796817339017285</v>
       </c>
       <c r="D4">
-        <v>-0.02493498408292448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02733745277034896</v>
+      </c>
+      <c r="E4">
+        <v>0.05401881270682979</v>
+      </c>
+      <c r="F4">
+        <v>0.006667004672662977</v>
+      </c>
+      <c r="G4">
+        <v>-0.09196107476827996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02314911984904284</v>
+        <v>-0.03431500917442502</v>
       </c>
       <c r="C6">
-        <v>-0.0531874688846309</v>
+        <v>0.04086056691265617</v>
       </c>
       <c r="D6">
-        <v>-0.02195884159193424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02035740408374764</v>
+      </c>
+      <c r="E6">
+        <v>0.06120614205617678</v>
+      </c>
+      <c r="F6">
+        <v>0.009867368112654918</v>
+      </c>
+      <c r="G6">
+        <v>-0.08208227125581188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01987623178157008</v>
+        <v>-0.02050835755346657</v>
       </c>
       <c r="C7">
-        <v>-0.04290565190635484</v>
+        <v>0.03381025536235952</v>
       </c>
       <c r="D7">
-        <v>-0.01737469265236573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01608598894624068</v>
+      </c>
+      <c r="E7">
+        <v>0.02862023735336081</v>
+      </c>
+      <c r="F7">
+        <v>-0.001857659835451143</v>
+      </c>
+      <c r="G7">
+        <v>-0.1222040457931733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002517256772508639</v>
+        <v>-0.004897132513821336</v>
       </c>
       <c r="C8">
-        <v>-0.01017596439314716</v>
+        <v>0.01983767409664457</v>
       </c>
       <c r="D8">
-        <v>-0.004270596677290068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004895998695535588</v>
+      </c>
+      <c r="E8">
+        <v>0.03588683788961538</v>
+      </c>
+      <c r="F8">
+        <v>0.006167333869051449</v>
+      </c>
+      <c r="G8">
+        <v>-0.06658998250352574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02930352957501833</v>
+        <v>-0.03432813860986513</v>
       </c>
       <c r="C9">
-        <v>-0.04219160585646856</v>
+        <v>0.04434076505875848</v>
       </c>
       <c r="D9">
-        <v>-0.01794634351797555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01810889879349259</v>
+      </c>
+      <c r="E9">
+        <v>0.03814267704062353</v>
+      </c>
+      <c r="F9">
+        <v>0.004476570183398743</v>
+      </c>
+      <c r="G9">
+        <v>-0.09798445286237845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07641178155530007</v>
+        <v>-0.09468102178183761</v>
       </c>
       <c r="C10">
-        <v>0.1887459056230013</v>
+        <v>-0.1948069439684263</v>
       </c>
       <c r="D10">
-        <v>0.05185593450631915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01501510207603102</v>
+      </c>
+      <c r="E10">
+        <v>0.01677219831358538</v>
+      </c>
+      <c r="F10">
+        <v>0.02968799598985068</v>
+      </c>
+      <c r="G10">
+        <v>-0.05332071384508091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03987027305299336</v>
+        <v>-0.03583021612207862</v>
       </c>
       <c r="C11">
-        <v>-0.05437131709088212</v>
+        <v>0.05108017130703347</v>
       </c>
       <c r="D11">
-        <v>-0.005216343160547476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.00324391855810083</v>
+      </c>
+      <c r="E11">
+        <v>0.02749303756022777</v>
+      </c>
+      <c r="F11">
+        <v>-0.01402793808900255</v>
+      </c>
+      <c r="G11">
+        <v>-0.07423720954089963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03749124227580952</v>
+        <v>-0.03709929952641374</v>
       </c>
       <c r="C12">
-        <v>-0.04388038642047351</v>
+        <v>0.04493337890480073</v>
       </c>
       <c r="D12">
-        <v>-0.008795236348655993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.007426425950651188</v>
+      </c>
+      <c r="E12">
+        <v>0.01807878465287083</v>
+      </c>
+      <c r="F12">
+        <v>-0.005018680165489914</v>
+      </c>
+      <c r="G12">
+        <v>-0.0730427132834274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009791048989269907</v>
+        <v>-0.01085810158513248</v>
       </c>
       <c r="C13">
-        <v>-0.03244679509543998</v>
+        <v>0.03540346454857424</v>
       </c>
       <c r="D13">
-        <v>-0.02765979944173079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03058533107570179</v>
+      </c>
+      <c r="E13">
+        <v>0.06235438444120318</v>
+      </c>
+      <c r="F13">
+        <v>0.01949233905988407</v>
+      </c>
+      <c r="G13">
+        <v>-0.1296499174295534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007354374619309332</v>
+        <v>-0.008464979046846507</v>
       </c>
       <c r="C14">
-        <v>-0.02681292426758788</v>
+        <v>0.02509236281829161</v>
       </c>
       <c r="D14">
-        <v>-0.0117515272722711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01225650959696587</v>
+      </c>
+      <c r="E14">
+        <v>0.02298469332389276</v>
+      </c>
+      <c r="F14">
+        <v>0.00725846331290731</v>
+      </c>
+      <c r="G14">
+        <v>-0.1141137676117658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03440897618109208</v>
+        <v>-0.03466118359272007</v>
       </c>
       <c r="C16">
-        <v>-0.04079888929053611</v>
+        <v>0.04345783101330334</v>
       </c>
       <c r="D16">
-        <v>-0.003543914928952117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002907052007048109</v>
+      </c>
+      <c r="E16">
+        <v>0.02388580324462113</v>
+      </c>
+      <c r="F16">
+        <v>0.003237942478660918</v>
+      </c>
+      <c r="G16">
+        <v>-0.0811218497083985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02957420356861275</v>
+        <v>-0.01785971509965272</v>
       </c>
       <c r="C19">
-        <v>-0.05550794552149853</v>
+        <v>0.04778880737342351</v>
       </c>
       <c r="D19">
-        <v>-0.0198184026104613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0236937407881914</v>
+      </c>
+      <c r="E19">
+        <v>0.1004658160055515</v>
+      </c>
+      <c r="F19">
+        <v>0.02033971730796516</v>
+      </c>
+      <c r="G19">
+        <v>-0.1346565002103046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01296141355139112</v>
+        <v>-0.01516427826858245</v>
       </c>
       <c r="C20">
-        <v>-0.04135265117998704</v>
+        <v>0.0357754163497486</v>
       </c>
       <c r="D20">
-        <v>-0.01744026701062072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01653545410506489</v>
+      </c>
+      <c r="E20">
+        <v>0.04698529068409395</v>
+      </c>
+      <c r="F20">
+        <v>0.03001870295337452</v>
+      </c>
+      <c r="G20">
+        <v>-0.1058874444874776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005343551977529485</v>
+        <v>-0.006245643186204099</v>
       </c>
       <c r="C21">
-        <v>-0.03439690899227441</v>
+        <v>0.03249314944748107</v>
       </c>
       <c r="D21">
-        <v>-0.01999180428359577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02282978988949452</v>
+      </c>
+      <c r="E21">
+        <v>0.06625142902224929</v>
+      </c>
+      <c r="F21">
+        <v>0.02087418367474887</v>
+      </c>
+      <c r="G21">
+        <v>-0.1485337911963363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001141464024537146</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01010206636601512</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003661859628461127</v>
+      </c>
+      <c r="E22">
+        <v>0.02552989913898689</v>
+      </c>
+      <c r="F22">
+        <v>-0.00336156507884758</v>
+      </c>
+      <c r="G22">
+        <v>-0.006593371943715151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001152015076719166</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01007225846506936</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003642312383320881</v>
+      </c>
+      <c r="E23">
+        <v>0.02535143263505647</v>
+      </c>
+      <c r="F23">
+        <v>-0.003061016897280686</v>
+      </c>
+      <c r="G23">
+        <v>-0.00641391523392727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02771417462306373</v>
+        <v>-0.030591920035799</v>
       </c>
       <c r="C24">
-        <v>-0.04730258463487615</v>
+        <v>0.04886839917496389</v>
       </c>
       <c r="D24">
-        <v>-0.0104743246193353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00811386269441159</v>
+      </c>
+      <c r="E24">
+        <v>0.02274893077093412</v>
+      </c>
+      <c r="F24">
+        <v>-0.006099259850193663</v>
+      </c>
+      <c r="G24">
+        <v>-0.08109084385278283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04662345398498725</v>
+        <v>-0.04323025139995426</v>
       </c>
       <c r="C25">
-        <v>-0.05244004258149555</v>
+        <v>0.05540142194820897</v>
       </c>
       <c r="D25">
-        <v>-0.01403769958311681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01212622451072323</v>
+      </c>
+      <c r="E25">
+        <v>0.01501482718775611</v>
+      </c>
+      <c r="F25">
+        <v>-0.004925584160854146</v>
+      </c>
+      <c r="G25">
+        <v>-0.08842158590817782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004230133534765711</v>
+        <v>-0.01414029743910304</v>
       </c>
       <c r="C26">
-        <v>-0.007874362502475946</v>
+        <v>0.009704749596014401</v>
       </c>
       <c r="D26">
-        <v>-0.02379986400468917</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02494396793402191</v>
+      </c>
+      <c r="E26">
+        <v>0.01661197235653312</v>
+      </c>
+      <c r="F26">
+        <v>0.007233231145064231</v>
+      </c>
+      <c r="G26">
+        <v>-0.08486693527982317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09341773060832169</v>
+        <v>-0.1233944390343127</v>
       </c>
       <c r="C28">
-        <v>0.2210007334768921</v>
+        <v>-0.2455966690194211</v>
       </c>
       <c r="D28">
-        <v>0.04646819363504887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006515049022740766</v>
+      </c>
+      <c r="E28">
+        <v>-0.002409482515486687</v>
+      </c>
+      <c r="F28">
+        <v>0.03090200207364073</v>
+      </c>
+      <c r="G28">
+        <v>-0.05092277088196362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0122830539261338</v>
+        <v>-0.007528357068384739</v>
       </c>
       <c r="C29">
-        <v>-0.01908569663739723</v>
+        <v>0.02013069521179574</v>
       </c>
       <c r="D29">
-        <v>-0.009136703252350642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0108720562926541</v>
+      </c>
+      <c r="E29">
+        <v>0.01410845227415693</v>
+      </c>
+      <c r="F29">
+        <v>0.01062960951369648</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016349028548282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03815875552897575</v>
+        <v>-0.03920114514621811</v>
       </c>
       <c r="C30">
-        <v>-0.07167670516501387</v>
+        <v>0.063921127664346</v>
       </c>
       <c r="D30">
-        <v>-0.03294321956165591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03282557266307909</v>
+      </c>
+      <c r="E30">
+        <v>0.08399985704971712</v>
+      </c>
+      <c r="F30">
+        <v>-0.01775141019314451</v>
+      </c>
+      <c r="G30">
+        <v>-0.118041621382062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04104831237029511</v>
+        <v>-0.05549702298930707</v>
       </c>
       <c r="C31">
-        <v>-0.02469246180254056</v>
+        <v>0.03847527447538895</v>
       </c>
       <c r="D31">
-        <v>-0.004280607432874106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004528463471992447</v>
+      </c>
+      <c r="E31">
+        <v>0.0014484778751038</v>
+      </c>
+      <c r="F31">
+        <v>0.03456745037318136</v>
+      </c>
+      <c r="G31">
+        <v>-0.0930323029543266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0123279920082914</v>
+        <v>-0.002928725561873563</v>
       </c>
       <c r="C32">
-        <v>-0.03728747487613208</v>
+        <v>0.02141698997019118</v>
       </c>
       <c r="D32">
-        <v>0.001564957227562672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0006281394289891034</v>
+      </c>
+      <c r="E32">
+        <v>0.05215420152419657</v>
+      </c>
+      <c r="F32">
+        <v>-0.01914792942013296</v>
+      </c>
+      <c r="G32">
+        <v>-0.06828767031246398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03010423206631907</v>
+        <v>-0.02648717757019213</v>
       </c>
       <c r="C33">
-        <v>-0.05419802726472397</v>
+        <v>0.04687328982683031</v>
       </c>
       <c r="D33">
-        <v>-0.01769970300255427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01933958867856835</v>
+      </c>
+      <c r="E33">
+        <v>0.06955389125547795</v>
+      </c>
+      <c r="F33">
+        <v>0.002962205669621951</v>
+      </c>
+      <c r="G33">
+        <v>-0.1551688953743446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0534795143196138</v>
+        <v>-0.04122597845490999</v>
       </c>
       <c r="C34">
-        <v>-0.05327210300732332</v>
+        <v>0.05916565639814107</v>
       </c>
       <c r="D34">
-        <v>0.003317573422468389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003527906270028237</v>
+      </c>
+      <c r="E34">
+        <v>0.0216604123206998</v>
+      </c>
+      <c r="F34">
+        <v>-0.01986537193655346</v>
+      </c>
+      <c r="G34">
+        <v>-0.07658308875849128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008344792241455339</v>
+        <v>-0.01523654762502193</v>
       </c>
       <c r="C36">
-        <v>-0.003367272030748443</v>
+        <v>0.005798750991982624</v>
       </c>
       <c r="D36">
-        <v>-0.01095551155769112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01410698878381669</v>
+      </c>
+      <c r="E36">
+        <v>0.02038966013617732</v>
+      </c>
+      <c r="F36">
+        <v>0.01031044762763527</v>
+      </c>
+      <c r="G36">
+        <v>-0.09508654565763738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03438766747987757</v>
+        <v>-0.03053564287506893</v>
       </c>
       <c r="C38">
-        <v>-0.02296377287952161</v>
+        <v>0.02303260412288041</v>
       </c>
       <c r="D38">
-        <v>0.008450955810996032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00600097093331119</v>
+      </c>
+      <c r="E38">
+        <v>0.02054351192741268</v>
+      </c>
+      <c r="F38">
+        <v>0.01545183470040928</v>
+      </c>
+      <c r="G38">
+        <v>-0.09049758187345612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03675626482089423</v>
+        <v>-0.0369284768824034</v>
       </c>
       <c r="C39">
-        <v>-0.08396853777485468</v>
+        <v>0.07453938161920404</v>
       </c>
       <c r="D39">
-        <v>-0.0196533661875163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01397673631094691</v>
+      </c>
+      <c r="E39">
+        <v>0.04396979396336759</v>
+      </c>
+      <c r="F39">
+        <v>-0.0164453932666241</v>
+      </c>
+      <c r="G39">
+        <v>-0.09068379620291249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0170704020164263</v>
+        <v>-0.01615429384390376</v>
       </c>
       <c r="C40">
-        <v>-0.02482947576041791</v>
+        <v>0.03338050990050897</v>
       </c>
       <c r="D40">
-        <v>-0.01356804964916836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0161081206213053</v>
+      </c>
+      <c r="E40">
+        <v>0.0341954965808372</v>
+      </c>
+      <c r="F40">
+        <v>0.02965065516542106</v>
+      </c>
+      <c r="G40">
+        <v>-0.1121138468992939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01007053473819981</v>
+        <v>-0.01887645900376352</v>
       </c>
       <c r="C41">
-        <v>0.001717924620590464</v>
+        <v>-0.001782041523218164</v>
       </c>
       <c r="D41">
-        <v>-0.002252922113632403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005938680417583787</v>
+      </c>
+      <c r="E41">
+        <v>0.01655348943540767</v>
+      </c>
+      <c r="F41">
+        <v>0.01638373304770472</v>
+      </c>
+      <c r="G41">
+        <v>-0.08968681838867065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01307289782843006</v>
+        <v>-0.005019895045840128</v>
       </c>
       <c r="C42">
-        <v>-0.03193373597598852</v>
+        <v>0.02515630796759317</v>
       </c>
       <c r="D42">
-        <v>-0.0933451983016301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08338597836129302</v>
+      </c>
+      <c r="E42">
+        <v>-0.01238376086592402</v>
+      </c>
+      <c r="F42">
+        <v>0.03148185858472312</v>
+      </c>
+      <c r="G42">
+        <v>0.01954687016375653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02955203006897193</v>
+        <v>-0.0333868673355714</v>
       </c>
       <c r="C43">
-        <v>-0.009236643744362455</v>
+        <v>0.01116646432349312</v>
       </c>
       <c r="D43">
-        <v>-0.002139375595504972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007674277364938724</v>
+      </c>
+      <c r="E43">
+        <v>0.03499979306634109</v>
+      </c>
+      <c r="F43">
+        <v>0.01442978197231716</v>
+      </c>
+      <c r="G43">
+        <v>-0.1151811801173483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02038103769902545</v>
+        <v>-0.01421549445552638</v>
       </c>
       <c r="C44">
-        <v>-0.05405985653593305</v>
+        <v>0.05079378605623439</v>
       </c>
       <c r="D44">
-        <v>-0.01055976567630574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.009338412012163339</v>
+      </c>
+      <c r="E44">
+        <v>0.0411483933602175</v>
+      </c>
+      <c r="F44">
+        <v>0.01906527021526863</v>
+      </c>
+      <c r="G44">
+        <v>-0.1174767875683839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0004473650102967355</v>
+        <v>-0.009748436033002973</v>
       </c>
       <c r="C46">
-        <v>-0.009949858158490785</v>
+        <v>0.01519868833461724</v>
       </c>
       <c r="D46">
-        <v>-0.01275636102956797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01382678061944657</v>
+      </c>
+      <c r="E46">
+        <v>0.006494197050615229</v>
+      </c>
+      <c r="F46">
+        <v>0.01672479604012346</v>
+      </c>
+      <c r="G46">
+        <v>-0.1114066819835461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07313462235834405</v>
+        <v>-0.08405291210524007</v>
       </c>
       <c r="C47">
-        <v>-0.06444099063744448</v>
+        <v>0.07046485594638402</v>
       </c>
       <c r="D47">
-        <v>-0.0003516404547382637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004774710751877687</v>
+      </c>
+      <c r="E47">
+        <v>-0.007323795607140529</v>
+      </c>
+      <c r="F47">
+        <v>0.04264387696812404</v>
+      </c>
+      <c r="G47">
+        <v>-0.08612765473636072</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01156600178913247</v>
+        <v>-0.01716236714095611</v>
       </c>
       <c r="C48">
-        <v>-0.01047002268717587</v>
+        <v>0.01138107571134047</v>
       </c>
       <c r="D48">
-        <v>-0.00151888343271527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003765649299161922</v>
+      </c>
+      <c r="E48">
+        <v>0.01491331719214056</v>
+      </c>
+      <c r="F48">
+        <v>0.02221288123444487</v>
+      </c>
+      <c r="G48">
+        <v>-0.1077402474011539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07890487383050417</v>
+        <v>-0.07797815126408064</v>
       </c>
       <c r="C50">
-        <v>-0.05950041644416688</v>
+        <v>0.06588343016922958</v>
       </c>
       <c r="D50">
-        <v>0.0002308131640510504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001147196136974886</v>
+      </c>
+      <c r="E50">
+        <v>-0.0006998694160060744</v>
+      </c>
+      <c r="F50">
+        <v>0.04216797798640077</v>
+      </c>
+      <c r="G50">
+        <v>-0.09629436256959099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01925704394603408</v>
+        <v>-0.01221966356935146</v>
       </c>
       <c r="C51">
-        <v>-0.0388901742908362</v>
+        <v>0.03168611050238326</v>
       </c>
       <c r="D51">
-        <v>-0.01158284621091481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01266044762629866</v>
+      </c>
+      <c r="E51">
+        <v>0.04120800896683293</v>
+      </c>
+      <c r="F51">
+        <v>-0.007601514097165782</v>
+      </c>
+      <c r="G51">
+        <v>-0.1079054628337092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1014019391860567</v>
+        <v>-0.08641449448217108</v>
       </c>
       <c r="C53">
-        <v>-0.07229924980443671</v>
+        <v>0.08482280757339872</v>
       </c>
       <c r="D53">
-        <v>0.001009879375083739</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003739864469764561</v>
+      </c>
+      <c r="E53">
+        <v>-0.029155685664249</v>
+      </c>
+      <c r="F53">
+        <v>0.04647484502896961</v>
+      </c>
+      <c r="G53">
+        <v>-0.08871963854292465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02734555126366026</v>
+        <v>-0.03210592850454383</v>
       </c>
       <c r="C54">
-        <v>-0.002715121583861541</v>
+        <v>0.01401350812271132</v>
       </c>
       <c r="D54">
-        <v>0.005256064470575157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0007055672328957027</v>
+      </c>
+      <c r="E54">
+        <v>0.02824537278657477</v>
+      </c>
+      <c r="F54">
+        <v>0.01287959284954597</v>
+      </c>
+      <c r="G54">
+        <v>-0.1102142847613649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07694899499391028</v>
+        <v>-0.08118341427686564</v>
       </c>
       <c r="C55">
-        <v>-0.06222930345743806</v>
+        <v>0.06804495793711308</v>
       </c>
       <c r="D55">
-        <v>0.0005423632400326324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005983651899201266</v>
+      </c>
+      <c r="E55">
+        <v>-0.0329680730267595</v>
+      </c>
+      <c r="F55">
+        <v>0.04624576324877363</v>
+      </c>
+      <c r="G55">
+        <v>-0.06551659840811698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1535983284526669</v>
+        <v>-0.142636940237007</v>
       </c>
       <c r="C56">
-        <v>-0.0906356221221491</v>
+        <v>0.1026545420915034</v>
       </c>
       <c r="D56">
-        <v>0.01022879776024226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01316367064838886</v>
+      </c>
+      <c r="E56">
+        <v>-0.03913732721010141</v>
+      </c>
+      <c r="F56">
+        <v>0.05723460263555816</v>
+      </c>
+      <c r="G56">
+        <v>-0.05307859156138044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0097569625695113</v>
+        <v>-0.003659013047048716</v>
       </c>
       <c r="C57">
-        <v>-0.003028833012101293</v>
+        <v>0.003058587371025879</v>
       </c>
       <c r="D57">
-        <v>-0.02164847660066441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02301152420410714</v>
+      </c>
+      <c r="E57">
+        <v>0.02431393403698786</v>
+      </c>
+      <c r="F57">
+        <v>0.003355940851459237</v>
+      </c>
+      <c r="G57">
+        <v>-0.01215488200012939</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04318662586789629</v>
+        <v>-0.03816716548346702</v>
       </c>
       <c r="C58">
-        <v>-0.06219720933098889</v>
+        <v>0.0325413760433208</v>
       </c>
       <c r="D58">
-        <v>-0.006173153365963961</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03945265955174172</v>
+      </c>
+      <c r="E58">
+        <v>0.715140378988831</v>
+      </c>
+      <c r="F58">
+        <v>0.5892818785491667</v>
+      </c>
+      <c r="G58">
+        <v>0.3099693896722001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1431315782731943</v>
+        <v>-0.1486676439551204</v>
       </c>
       <c r="C59">
-        <v>0.2176842590444481</v>
+        <v>-0.2070913058858335</v>
       </c>
       <c r="D59">
-        <v>0.0583592451936186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.009807207828585168</v>
+      </c>
+      <c r="E59">
+        <v>0.02334098445253833</v>
+      </c>
+      <c r="F59">
+        <v>0.01421473685657485</v>
+      </c>
+      <c r="G59">
+        <v>-0.03977874911510744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3123061663411058</v>
+        <v>-0.2878212704990439</v>
       </c>
       <c r="C60">
-        <v>-0.088577397053829</v>
+        <v>0.09614483832066217</v>
       </c>
       <c r="D60">
-        <v>0.00332358441001392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01866432706601054</v>
+      </c>
+      <c r="E60">
+        <v>0.1327738141178288</v>
+      </c>
+      <c r="F60">
+        <v>-0.3043486607163693</v>
+      </c>
+      <c r="G60">
+        <v>0.1623944336243821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03313397794526642</v>
+        <v>-0.03909999461381818</v>
       </c>
       <c r="C61">
-        <v>-0.06300368523406126</v>
+        <v>0.06177690668317535</v>
       </c>
       <c r="D61">
-        <v>-0.01054250414610203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.007643906709426932</v>
+      </c>
+      <c r="E61">
+        <v>0.03903095663626752</v>
+      </c>
+      <c r="F61">
+        <v>-0.006144487489262998</v>
+      </c>
+      <c r="G61">
+        <v>-0.08786188489628571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01411014629058461</v>
+        <v>-0.01471446427109648</v>
       </c>
       <c r="C63">
-        <v>-0.02743311222795611</v>
+        <v>0.02667808346110785</v>
       </c>
       <c r="D63">
-        <v>-0.01060427929534363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009696044938517537</v>
+      </c>
+      <c r="E63">
+        <v>0.01420753695995282</v>
+      </c>
+      <c r="F63">
+        <v>0.01245519639211207</v>
+      </c>
+      <c r="G63">
+        <v>-0.08820910209732703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04666793873835637</v>
+        <v>-0.05065787051475275</v>
       </c>
       <c r="C64">
-        <v>-0.03024536848165335</v>
+        <v>0.0465944897919157</v>
       </c>
       <c r="D64">
-        <v>-0.005186694464964584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00635398237904409</v>
+      </c>
+      <c r="E64">
+        <v>0.008004829804965948</v>
+      </c>
+      <c r="F64">
+        <v>-0.003157887032688435</v>
+      </c>
+      <c r="G64">
+        <v>-0.09453909463375104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08210536043045723</v>
+        <v>-0.07119117859764644</v>
       </c>
       <c r="C65">
-        <v>-0.06412596950489291</v>
+        <v>0.04827138795624608</v>
       </c>
       <c r="D65">
-        <v>-0.01737889705468204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01960054266862402</v>
+      </c>
+      <c r="E65">
+        <v>0.06506314966009524</v>
+      </c>
+      <c r="F65">
+        <v>-0.007741637250729833</v>
+      </c>
+      <c r="G65">
+        <v>-0.03925678957381385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05845951920084207</v>
+        <v>-0.04891870560170931</v>
       </c>
       <c r="C66">
-        <v>-0.123159595415284</v>
+        <v>0.1003178107899331</v>
       </c>
       <c r="D66">
-        <v>-0.02335858847563491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01495075057580523</v>
+      </c>
+      <c r="E66">
+        <v>0.06754197685702655</v>
+      </c>
+      <c r="F66">
+        <v>-0.02156056528452265</v>
+      </c>
+      <c r="G66">
+        <v>-0.09479918067658177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06347784170156699</v>
+        <v>-0.05390043328271719</v>
       </c>
       <c r="C67">
-        <v>-0.02502753435413128</v>
+        <v>0.02853857292347706</v>
       </c>
       <c r="D67">
-        <v>0.008598548800375696</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005324080482966383</v>
+      </c>
+      <c r="E67">
+        <v>0.006643866383598426</v>
+      </c>
+      <c r="F67">
+        <v>0.01083779477280955</v>
+      </c>
+      <c r="G67">
+        <v>-0.07704437919099537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1082359948773876</v>
+        <v>-0.1515201343062573</v>
       </c>
       <c r="C68">
-        <v>0.2815712762465823</v>
+        <v>-0.2735460306606245</v>
       </c>
       <c r="D68">
-        <v>0.04487351848218621</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005820980804997805</v>
+      </c>
+      <c r="E68">
+        <v>-0.005350524942821996</v>
+      </c>
+      <c r="F68">
+        <v>0.04327096711159831</v>
+      </c>
+      <c r="G68">
+        <v>-0.02173937484728778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08197594006813085</v>
+        <v>-0.08461511596519532</v>
       </c>
       <c r="C69">
-        <v>-0.05945361070835117</v>
+        <v>0.07299551702293916</v>
       </c>
       <c r="D69">
-        <v>0.005764996047642249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008194456716376869</v>
+      </c>
+      <c r="E69">
+        <v>-0.01237277288056249</v>
+      </c>
+      <c r="F69">
+        <v>0.01964724863956118</v>
+      </c>
+      <c r="G69">
+        <v>-0.1014169371851137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1171469272891277</v>
+        <v>-0.1385071982922492</v>
       </c>
       <c r="C71">
-        <v>0.2276082192438819</v>
+        <v>-0.2364344531074506</v>
       </c>
       <c r="D71">
-        <v>0.0486144054631552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002540909516456842</v>
+      </c>
+      <c r="E71">
+        <v>0.02334513539710113</v>
+      </c>
+      <c r="F71">
+        <v>0.03854343646956106</v>
+      </c>
+      <c r="G71">
+        <v>-0.06370459318872314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07172040271142414</v>
+        <v>-0.0864080218193882</v>
       </c>
       <c r="C72">
-        <v>-0.06480471494102881</v>
+        <v>0.06023554937031371</v>
       </c>
       <c r="D72">
-        <v>0.004714880690844028</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006786645077144745</v>
+      </c>
+      <c r="E72">
+        <v>0.009426489298433573</v>
+      </c>
+      <c r="F72">
+        <v>-0.02378178274073854</v>
+      </c>
+      <c r="G72">
+        <v>-0.08501923107032236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4348978576307058</v>
+        <v>-0.3730562440839103</v>
       </c>
       <c r="C73">
-        <v>-0.09802228008740384</v>
+        <v>0.08910331630706508</v>
       </c>
       <c r="D73">
-        <v>0.01177639698820454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03225522836544142</v>
+      </c>
+      <c r="E73">
+        <v>0.2863535738078233</v>
+      </c>
+      <c r="F73">
+        <v>-0.5305387992924678</v>
+      </c>
+      <c r="G73">
+        <v>0.3320553156544142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.11831948763594</v>
+        <v>-0.1095244150269244</v>
       </c>
       <c r="C74">
-        <v>-0.1160763440683099</v>
+        <v>0.1019503670677332</v>
       </c>
       <c r="D74">
-        <v>3.558073911306161e-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009768051565308354</v>
+      </c>
+      <c r="E74">
+        <v>-0.01405433431153802</v>
+      </c>
+      <c r="F74">
+        <v>0.05953099658713518</v>
+      </c>
+      <c r="G74">
+        <v>-0.07048739606146974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2606699576002401</v>
+        <v>-0.2531263178994913</v>
       </c>
       <c r="C75">
-        <v>-0.1259216366494923</v>
+        <v>0.1448258010970398</v>
       </c>
       <c r="D75">
-        <v>0.02436721788041751</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03275991387423915</v>
+      </c>
+      <c r="E75">
+        <v>-0.1038175175267792</v>
+      </c>
+      <c r="F75">
+        <v>0.1297543920789782</v>
+      </c>
+      <c r="G75">
+        <v>-0.02277158454723454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.123268810944669</v>
+        <v>-0.122995475607737</v>
       </c>
       <c r="C76">
-        <v>-0.1057564089087835</v>
+        <v>0.1056362849057461</v>
       </c>
       <c r="D76">
-        <v>0.008488487301210611</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01847048438390261</v>
+      </c>
+      <c r="E76">
+        <v>-0.04377904494450804</v>
+      </c>
+      <c r="F76">
+        <v>0.07989243118282384</v>
+      </c>
+      <c r="G76">
+        <v>-0.06503919022709589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06458687443687448</v>
+        <v>-0.06720006217437839</v>
       </c>
       <c r="C77">
-        <v>-0.06072778139548817</v>
+        <v>0.06376049385527832</v>
       </c>
       <c r="D77">
-        <v>-0.01090379804097182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01063217346830778</v>
+      </c>
+      <c r="E77">
+        <v>0.05313504309659858</v>
+      </c>
+      <c r="F77">
+        <v>0.0398137927713423</v>
+      </c>
+      <c r="G77">
+        <v>-0.1187627920983973</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04908460575019751</v>
+        <v>-0.04145286765082983</v>
       </c>
       <c r="C78">
-        <v>-0.05216576522793537</v>
+        <v>0.05344780417146986</v>
       </c>
       <c r="D78">
-        <v>-0.007068572137152129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.009987579038499542</v>
+      </c>
+      <c r="E78">
+        <v>0.05689321423907052</v>
+      </c>
+      <c r="F78">
+        <v>-0.02446060957133862</v>
+      </c>
+      <c r="G78">
+        <v>-0.09560206593410707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.00115818825704231</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-4.60525362379928e-06</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.001057106359316764</v>
+      </c>
+      <c r="E79">
+        <v>0.008172723843738726</v>
+      </c>
+      <c r="F79">
+        <v>0.002091239693350464</v>
+      </c>
+      <c r="G79">
+        <v>-0.009106987297185917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05848016155299128</v>
+        <v>-0.04116223449170425</v>
       </c>
       <c r="C80">
-        <v>-0.06218810074972372</v>
+        <v>0.04697954915916636</v>
       </c>
       <c r="D80">
-        <v>-0.01585594677285723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01515793605805174</v>
+      </c>
+      <c r="E80">
+        <v>0.04073868814252191</v>
+      </c>
+      <c r="F80">
+        <v>0.003814373161372128</v>
+      </c>
+      <c r="G80">
+        <v>-0.05130835485378825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1381782294965172</v>
+        <v>-0.1386522894351287</v>
       </c>
       <c r="C81">
-        <v>-0.07701339897906155</v>
+        <v>0.09126717456670548</v>
       </c>
       <c r="D81">
-        <v>0.01006318890257866</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0164856534281952</v>
+      </c>
+      <c r="E81">
+        <v>-0.07021911615524748</v>
+      </c>
+      <c r="F81">
+        <v>0.1038843927966529</v>
+      </c>
+      <c r="G81">
+        <v>-0.03602335665749638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05122919526715707</v>
+        <v>-0.1707870906813385</v>
       </c>
       <c r="C82">
-        <v>-0.03730344343072709</v>
+        <v>0.1189075299217024</v>
       </c>
       <c r="D82">
-        <v>-0.0002332590850433823</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01957344866268363</v>
+      </c>
+      <c r="E82">
+        <v>-0.1820918164878452</v>
+      </c>
+      <c r="F82">
+        <v>0.05177916873433348</v>
+      </c>
+      <c r="G82">
+        <v>-0.02487510361607096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02973761839783559</v>
+        <v>-0.02828421856900154</v>
       </c>
       <c r="C83">
-        <v>-0.01966324716019323</v>
+        <v>0.03299013872838677</v>
       </c>
       <c r="D83">
-        <v>-0.004446005815623056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.008020457928022449</v>
+      </c>
+      <c r="E83">
+        <v>0.03559863249465131</v>
+      </c>
+      <c r="F83">
+        <v>-0.01014015721897998</v>
+      </c>
+      <c r="G83">
+        <v>-0.06123079643185639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2515066923592055</v>
+        <v>-0.2136010795004183</v>
       </c>
       <c r="C85">
-        <v>-0.1272233822618216</v>
+        <v>0.128353302064511</v>
       </c>
       <c r="D85">
-        <v>0.01291402270574647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01939863120715207</v>
+      </c>
+      <c r="E85">
+        <v>-0.1089461087083152</v>
+      </c>
+      <c r="F85">
+        <v>0.05769506401013207</v>
+      </c>
+      <c r="G85">
+        <v>0.02009213685260498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0101208214461347</v>
+        <v>-0.01051123615302066</v>
       </c>
       <c r="C86">
-        <v>-0.02082728867133834</v>
+        <v>0.02590839907207287</v>
       </c>
       <c r="D86">
-        <v>-0.009000504647613329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01523334135053356</v>
+      </c>
+      <c r="E86">
+        <v>0.07584919531025051</v>
+      </c>
+      <c r="F86">
+        <v>-0.01147125316629513</v>
+      </c>
+      <c r="G86">
+        <v>-0.1708407551446659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01461551889066304</v>
+        <v>-0.01996061621942964</v>
       </c>
       <c r="C87">
-        <v>-0.02135464699352515</v>
+        <v>0.01481671820596156</v>
       </c>
       <c r="D87">
-        <v>-0.009966156580418432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0148518768140616</v>
+      </c>
+      <c r="E87">
+        <v>0.09910600260690501</v>
+      </c>
+      <c r="F87">
+        <v>0.03569584347032353</v>
+      </c>
+      <c r="G87">
+        <v>-0.1099806614440462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09533193310629506</v>
+        <v>-0.08987151899580362</v>
       </c>
       <c r="C88">
-        <v>-0.06170717213365924</v>
+        <v>0.06244321445762851</v>
       </c>
       <c r="D88">
-        <v>-0.02414875825242448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02316277151938653</v>
+      </c>
+      <c r="E88">
+        <v>0.006508585136525095</v>
+      </c>
+      <c r="F88">
+        <v>0.01962361583993631</v>
+      </c>
+      <c r="G88">
+        <v>-0.1062348078239053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2010637330650145</v>
+        <v>-0.2159504231976004</v>
       </c>
       <c r="C89">
-        <v>0.3761523952573739</v>
+        <v>-0.3687510609099152</v>
       </c>
       <c r="D89">
-        <v>0.07373587415778672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.000886301335183271</v>
+      </c>
+      <c r="E89">
+        <v>-0.02416729662147741</v>
+      </c>
+      <c r="F89">
+        <v>0.01391741164535927</v>
+      </c>
+      <c r="G89">
+        <v>-0.09209270394580406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1784537156994545</v>
+        <v>-0.2006591611572134</v>
       </c>
       <c r="C90">
-        <v>0.3389106916471664</v>
+        <v>-0.3197175768076814</v>
       </c>
       <c r="D90">
-        <v>0.07130825684339274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004425401344609583</v>
+      </c>
+      <c r="E90">
+        <v>-0.01558417965584183</v>
+      </c>
+      <c r="F90">
+        <v>0.05215607934890929</v>
+      </c>
+      <c r="G90">
+        <v>-0.05161597763798828</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2020600355865632</v>
+        <v>-0.1893321351143319</v>
       </c>
       <c r="C91">
-        <v>-0.1125476834968358</v>
+        <v>0.1314811240868341</v>
       </c>
       <c r="D91">
-        <v>0.01707694428761399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02389892704839033</v>
+      </c>
+      <c r="E91">
+        <v>-0.08758824063291362</v>
+      </c>
+      <c r="F91">
+        <v>0.1046761954043059</v>
+      </c>
+      <c r="G91">
+        <v>-0.04093246145916662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1814679462124467</v>
+        <v>-0.1828882572281741</v>
       </c>
       <c r="C92">
-        <v>0.2633593864172506</v>
+        <v>-0.274834486181453</v>
       </c>
       <c r="D92">
-        <v>0.0955278131699884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03930877664020731</v>
+      </c>
+      <c r="E92">
+        <v>0.01166458109746296</v>
+      </c>
+      <c r="F92">
+        <v>0.06861131983478488</v>
+      </c>
+      <c r="G92">
+        <v>-0.07908105200463528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1916630444084813</v>
+        <v>-0.2234928226124612</v>
       </c>
       <c r="C93">
-        <v>0.3200895627992041</v>
+        <v>-0.3189569396567428</v>
       </c>
       <c r="D93">
-        <v>0.07482779924742725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01019967373490249</v>
+      </c>
+      <c r="E93">
+        <v>0.003296480100394409</v>
+      </c>
+      <c r="F93">
+        <v>0.03507731456466504</v>
+      </c>
+      <c r="G93">
+        <v>-0.05371127542953168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2792422834461715</v>
+        <v>-0.3376769064695215</v>
       </c>
       <c r="C94">
-        <v>-0.1372548379143539</v>
+        <v>0.1945167897210984</v>
       </c>
       <c r="D94">
-        <v>0.003341816943722135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03213294155914876</v>
+      </c>
+      <c r="E94">
+        <v>-0.3927937730619444</v>
+      </c>
+      <c r="F94">
+        <v>0.3536593396265195</v>
+      </c>
+      <c r="G94">
+        <v>0.3692928093569334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07325059791809509</v>
+        <v>-0.08029359423894437</v>
       </c>
       <c r="C95">
-        <v>-0.09263626962939087</v>
+        <v>0.09016231153063747</v>
       </c>
       <c r="D95">
-        <v>-0.0003424993136971725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006919966350160277</v>
+      </c>
+      <c r="E95">
+        <v>0.1358524247634715</v>
+      </c>
+      <c r="F95">
+        <v>-0.1341035780884502</v>
+      </c>
+      <c r="G95">
+        <v>-0.144878210216185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2088684779486329</v>
+        <v>-0.1950935776438685</v>
       </c>
       <c r="C98">
-        <v>-0.04830386897657696</v>
+        <v>0.04495157045271178</v>
       </c>
       <c r="D98">
-        <v>0.02896494619369478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.00863390317711739</v>
+      </c>
+      <c r="E98">
+        <v>0.135225590240394</v>
+      </c>
+      <c r="F98">
+        <v>-0.1958329607157695</v>
+      </c>
+      <c r="G98">
+        <v>0.06872110371532517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01210086228345581</v>
+        <v>-0.007374826117668661</v>
       </c>
       <c r="C101">
-        <v>-0.01940733894090558</v>
+        <v>0.02002093083302057</v>
       </c>
       <c r="D101">
-        <v>-0.009062259801617446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0106843756025119</v>
+      </c>
+      <c r="E101">
+        <v>0.01359533565219185</v>
+      </c>
+      <c r="F101">
+        <v>0.01138161453835996</v>
+      </c>
+      <c r="G101">
+        <v>-0.1013212736835714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1245431504511194</v>
+        <v>-0.1240181897221975</v>
       </c>
       <c r="C102">
-        <v>-0.07095146872595408</v>
+        <v>0.09578730210815115</v>
       </c>
       <c r="D102">
-        <v>-0.004186931971430133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001071689350919425</v>
+      </c>
+      <c r="E102">
+        <v>-0.05246528960882556</v>
+      </c>
+      <c r="F102">
+        <v>0.01972716590815042</v>
+      </c>
+      <c r="G102">
+        <v>-0.01767625342556893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.09986173063064999</v>
+        <v>-0.01969923133415787</v>
       </c>
       <c r="C104">
-        <v>0.1823190443366356</v>
+        <v>-0.02775037918062231</v>
       </c>
       <c r="D104">
-        <v>-0.9691671650259329</v>
+        <v>0.9853972757853997</v>
+      </c>
+      <c r="E104">
+        <v>-0.09504398557472582</v>
+      </c>
+      <c r="F104">
+        <v>0.01889852055888304</v>
+      </c>
+      <c r="G104">
+        <v>0.03693287444422381</v>
       </c>
     </row>
   </sheetData>
